--- a/data/ground_data.xlsx
+++ b/data/ground_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miniproject\horn-bill-telemetry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DC12B-E97E-48DA-A634-1957CFB3A0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D816E5A-2371-4AF8-8755-8D7175AFF246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82912F7F-2D03-446C-BDAB-BF71BBF9AD1F}"/>
+    <workbookView xWindow="3684" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{82912F7F-2D03-446C-BDAB-BF71BBF9AD1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +422,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,14 +430,14 @@
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -445,7 +448,7 @@
       <c r="B2">
         <v>-72.97</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -456,7 +459,7 @@
       <c r="B3">
         <v>-60</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -467,7 +470,7 @@
       <c r="B4">
         <v>-58.97</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -478,7 +481,7 @@
       <c r="B5">
         <v>10.75</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -489,7 +492,7 @@
       <c r="B6">
         <v>77.11</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -500,8 +503,8 @@
       <c r="B7">
         <v>101.39</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,8 +514,8 @@
       <c r="B8">
         <v>106.57</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,7 +525,7 @@
       <c r="B9">
         <v>100.99</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -533,8 +536,8 @@
       <c r="B10">
         <v>80.97</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,7 +547,7 @@
       <c r="B11">
         <v>95.96</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -555,8 +558,8 @@
       <c r="B12">
         <v>84.75</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,8 +569,8 @@
       <c r="B13">
         <v>85.25</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,8 +580,8 @@
       <c r="B14">
         <v>25.66</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,7 +591,7 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="b">
+      <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,8 +602,8 @@
       <c r="B16">
         <v>90.36</v>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,8 +613,8 @@
       <c r="B17">
         <v>87.69</v>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +624,7 @@
       <c r="B18">
         <v>4.25</v>
       </c>
-      <c r="C18" t="b">
+      <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -632,7 +635,7 @@
       <c r="B19">
         <v>84.5</v>
       </c>
-      <c r="C19" t="b">
+      <c r="C19" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -643,7 +646,7 @@
       <c r="B20">
         <v>84.13</v>
       </c>
-      <c r="C20" t="b">
+      <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -654,8 +657,8 @@
       <c r="B21">
         <v>80</v>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +668,7 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" t="b">
+      <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -676,7 +679,7 @@
       <c r="B23">
         <v>103.85</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -687,7 +690,7 @@
       <c r="B24">
         <v>90</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -698,7 +701,7 @@
       <c r="B25">
         <v>-149.49</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -709,7 +712,7 @@
       <c r="B26">
         <v>-45</v>
       </c>
-      <c r="C26" t="b">
+      <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/ground_data.xlsx
+++ b/data/ground_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miniproject\horn-bill-telemetry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D816E5A-2371-4AF8-8755-8D7175AFF246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3A97B-9BFA-4A5A-A99E-5F7BFC4E8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{82912F7F-2D03-446C-BDAB-BF71BBF9AD1F}"/>
+    <workbookView xWindow="5520" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{82912F7F-2D03-446C-BDAB-BF71BBF9AD1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221899BF-B84F-45AF-8CFC-1DF2A1775272}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,21 +465,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-2.89</v>
+        <v>-2.25</v>
       </c>
       <c r="B4">
-        <v>-58.97</v>
+        <v>10.75</v>
       </c>
       <c r="C4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-2.25</v>
+        <v>9.26</v>
       </c>
       <c r="B5">
-        <v>10.75</v>
+        <v>77.11</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9.26</v>
+        <v>14.35</v>
       </c>
       <c r="B6">
-        <v>77.11</v>
+        <v>106.57</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -498,43 +498,43 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>12.14</v>
+        <v>15.87</v>
       </c>
       <c r="B7">
-        <v>101.39</v>
+        <v>100.99</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14.35</v>
+        <v>19.8</v>
       </c>
       <c r="B8">
-        <v>106.57</v>
+        <v>80.97</v>
       </c>
       <c r="C8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>15.87</v>
+        <v>21.92</v>
       </c>
       <c r="B9">
-        <v>100.99</v>
+        <v>95.96</v>
       </c>
       <c r="C9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>19.8</v>
+        <v>22.75</v>
       </c>
       <c r="B10">
-        <v>80.97</v>
+        <v>84.75</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
@@ -542,21 +542,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>21.92</v>
+        <v>22.75</v>
       </c>
       <c r="B11">
-        <v>95.96</v>
+        <v>85.25</v>
       </c>
       <c r="C11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>22.75</v>
+        <v>23.69</v>
       </c>
       <c r="B12">
-        <v>84.75</v>
+        <v>90.36</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
@@ -564,21 +564,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22.75</v>
+        <v>23.81</v>
       </c>
       <c r="B13">
-        <v>85.25</v>
+        <v>87.69</v>
       </c>
       <c r="C13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23.42</v>
+        <v>26.25</v>
       </c>
       <c r="B14">
-        <v>25.66</v>
+        <v>4.25</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
@@ -586,21 +586,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>84.5</v>
       </c>
       <c r="C15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>23.69</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>90.36</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>23.81</v>
+        <v>60</v>
       </c>
       <c r="B17">
-        <v>87.69</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>26.25</v>
+        <v>64.2</v>
       </c>
       <c r="B18">
-        <v>4.25</v>
+        <v>-149.49</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
@@ -630,89 +630,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27.5</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>84.5</v>
+        <v>-45</v>
       </c>
       <c r="C19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>28.6</v>
-      </c>
-      <c r="B20">
-        <v>84.13</v>
-      </c>
-      <c r="C20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>46.86</v>
-      </c>
-      <c r="B23">
-        <v>103.85</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>64.2</v>
-      </c>
-      <c r="B25">
-        <v>-149.49</v>
-      </c>
-      <c r="C25" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>75</v>
-      </c>
-      <c r="B26">
-        <v>-45</v>
-      </c>
-      <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
